--- a/biology/Médecine/2014_en_santé_et_médecine/2014_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/2014_en_santé_et_médecine/2014_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2014_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2014_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 2014 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2014_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2014_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'épidémie de maladie à virus Ebola en Afrique de l'Ouest fait entre 15 000 et 20 000 morts en deux ans (2014-2015).
 3 mars : annonce de la découverte du virus géant Pithovirus sibericum dans le pergélisol de Sibérie.</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2014_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2014_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2014_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2014_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>15 mai : Jean Oury (né en 1924), psychiatre et psychanalyste français, figure de la psychothérapie institutionnelle.
 9 juillet : Jean Carpentier (né en 1935), médecin généraliste français, militant pour l'utilisation des traitements de substitution aux opiacés.</t>
